--- a/raw-data/export.xlsx
+++ b/raw-data/export.xlsx
@@ -1351,7 +1351,7 @@
     <xf numFmtId="0" fontId="54" fillId="42" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1401,6 +1401,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="453">
     <cellStyle name="%" xfId="1"/>
@@ -1915,8 +1916,8 @@
           <cell r="N6" t="str">
             <v>Gestion et contrôle des accès / Identification &amp; Authentification</v>
           </cell>
-          <cell r="O6">
-            <v>42736</v>
+          <cell r="O6" t="str">
+            <v>01/01/2017</v>
           </cell>
           <cell r="P6" t="str">
             <v/>
@@ -1928,7 +1929,7 @@
             <v>NA</v>
           </cell>
           <cell r="S6" t="str">
-            <v>NA</v>
+            <v>en cadrage</v>
           </cell>
         </row>
         <row r="7">
@@ -1956,17 +1957,17 @@
           <cell r="N7" t="str">
             <v>Protection et sécurité de l'espace national européen</v>
           </cell>
-          <cell r="O7">
-            <v>40725</v>
-          </cell>
-          <cell r="P7">
-            <v>6.8027397260273998</v>
+          <cell r="O7" t="str">
+            <v>01/07/2011</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>6,8027397260274</v>
           </cell>
           <cell r="Q7" t="str">
             <v>Expérimentation</v>
           </cell>
-          <cell r="R7">
-            <v>53.02</v>
+          <cell r="R7" t="str">
+            <v>53,02</v>
           </cell>
           <cell r="S7" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2005,17 +2006,17 @@
           <cell r="N8" t="str">
             <v>Immobilier</v>
           </cell>
-          <cell r="O8">
-            <v>42005</v>
-          </cell>
-          <cell r="P8">
-            <v>3.24657534246575</v>
+          <cell r="O8" t="str">
+            <v>01/01/2015</v>
+          </cell>
+          <cell r="P8" t="str">
+            <v>3,24657534246575</v>
           </cell>
           <cell r="Q8" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R8">
-            <v>18.8</v>
+          <cell r="R8" t="str">
+            <v>18,8</v>
           </cell>
           <cell r="S8" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2049,17 +2050,17 @@
           <cell r="N9" t="str">
             <v>Archives définitives</v>
           </cell>
-          <cell r="O9">
-            <v>41456</v>
-          </cell>
-          <cell r="P9">
-            <v>6.7561643835616403</v>
+          <cell r="O9" t="str">
+            <v>01/07/2013</v>
+          </cell>
+          <cell r="P9" t="str">
+            <v>6,75616438356164</v>
           </cell>
           <cell r="Q9" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R9">
-            <v>26.3</v>
+          <cell r="R9" t="str">
+            <v>26,3</v>
           </cell>
           <cell r="S9" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2090,17 +2091,17 @@
           <cell r="N10" t="str">
             <v>Finances</v>
           </cell>
-          <cell r="O10">
-            <v>42384</v>
-          </cell>
-          <cell r="P10">
-            <v>4.9643835616438396</v>
+          <cell r="O10" t="str">
+            <v>15/01/2016</v>
+          </cell>
+          <cell r="P10" t="str">
+            <v>4,96438356164384</v>
           </cell>
           <cell r="Q10" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R10">
-            <v>12.63</v>
+          <cell r="R10" t="str">
+            <v>12,63</v>
           </cell>
           <cell r="S10" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2131,17 +2132,17 @@
           <cell r="N11" t="str">
             <v>Action Diplomatique</v>
           </cell>
-          <cell r="O11">
-            <v>41821</v>
-          </cell>
-          <cell r="P11">
-            <v>4.5041095890411</v>
+          <cell r="O11" t="str">
+            <v>01/07/2014</v>
+          </cell>
+          <cell r="P11" t="str">
+            <v>4,5041095890411</v>
           </cell>
           <cell r="Q11" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R11">
-            <v>10.1</v>
+          <cell r="R11" t="str">
+            <v>10,1</v>
           </cell>
           <cell r="S11" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2173,20 +2174,20 @@
           <cell r="N12" t="str">
             <v>Archives définitives</v>
           </cell>
-          <cell r="O12">
-            <v>42345</v>
-          </cell>
-          <cell r="P12">
-            <v>5.0712328767123296</v>
+          <cell r="O12" t="str">
+            <v>07/12/2015</v>
+          </cell>
+          <cell r="P12" t="str">
+            <v>5,07123287671233</v>
           </cell>
           <cell r="Q12" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R12">
-            <v>4.42</v>
+          <cell r="R12" t="str">
+            <v>4,42</v>
           </cell>
           <cell r="S12" t="str">
-            <v>&lt; 5 M€</v>
+            <v>moins de 5M€</v>
           </cell>
         </row>
         <row r="13">
@@ -2221,17 +2222,17 @@
           <cell r="N13" t="str">
             <v>Emploi et Formation Professionnelle</v>
           </cell>
-          <cell r="O13">
-            <v>42339</v>
-          </cell>
-          <cell r="P13">
-            <v>3.5013698630137</v>
+          <cell r="O13" t="str">
+            <v>01/12/2015</v>
+          </cell>
+          <cell r="P13" t="str">
+            <v>3,5013698630137</v>
           </cell>
           <cell r="Q13" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R13">
-            <v>24.8</v>
+          <cell r="R13" t="str">
+            <v>24,8</v>
           </cell>
           <cell r="S13" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2258,7 +2259,7 @@
             <v>https://www.economie.gouv.fr/cisirh/renoirh</v>
           </cell>
           <cell r="L14" t="str">
-            <v>Conduite et soutien des politiques sanitaires, sociales, du sport, de la jeunesse et de la vie associative (P124) / Conception, gestion et évaluation des politiques de l'emploi et du travail (P155)</v>
+            <v>124 / 155</v>
           </cell>
           <cell r="M14" t="str">
             <v>http://www.performance-publique.budget.gouv.fr/documents-budgetaires/lois-projets-lois-documents-annexes-annee/exercice-2017/projet-loi-finances-2017-mission-direction-action-gouvernement#RPGM129</v>
@@ -2266,17 +2267,17 @@
           <cell r="N14" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O14">
-            <v>40909</v>
-          </cell>
-          <cell r="P14">
-            <v>6.9205479452054801</v>
+          <cell r="O14" t="str">
+            <v>01/01/2012</v>
+          </cell>
+          <cell r="P14" t="str">
+            <v>6,92054794520548</v>
           </cell>
           <cell r="Q14" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R14">
-            <v>27.1</v>
+          <cell r="R14" t="str">
+            <v>27,1</v>
           </cell>
           <cell r="S14" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2311,17 +2312,17 @@
           <cell r="N15" t="str">
             <v>Offre de soins</v>
           </cell>
-          <cell r="O15">
-            <v>41883</v>
-          </cell>
-          <cell r="P15">
-            <v>4.5808219178082199</v>
+          <cell r="O15" t="str">
+            <v>01/09/2014</v>
+          </cell>
+          <cell r="P15" t="str">
+            <v>4,58082191780822</v>
           </cell>
           <cell r="Q15" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R15">
-            <v>75.099999999999994</v>
+          <cell r="R15" t="str">
+            <v>75,1</v>
           </cell>
           <cell r="S15" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2352,17 +2353,17 @@
           <cell r="N16" t="str">
             <v>Alimentation</v>
           </cell>
-          <cell r="O16">
-            <v>41275</v>
-          </cell>
-          <cell r="P16">
-            <v>6.3287671232876699</v>
+          <cell r="O16" t="str">
+            <v>01/01/2013</v>
+          </cell>
+          <cell r="P16" t="str">
+            <v>6,32876712328767</v>
           </cell>
           <cell r="Q16" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R16">
-            <v>16.09</v>
+          <cell r="R16" t="str">
+            <v>16,09</v>
           </cell>
           <cell r="S16" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2393,17 +2394,17 @@
           <cell r="N17" t="str">
             <v>Alimentation</v>
           </cell>
-          <cell r="O17">
-            <v>41244</v>
-          </cell>
-          <cell r="P17">
-            <v>5.75342465753425</v>
+          <cell r="O17" t="str">
+            <v>01/12/2012</v>
+          </cell>
+          <cell r="P17" t="str">
+            <v>5,75342465753425</v>
           </cell>
           <cell r="Q17" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R17">
-            <v>25.72</v>
+          <cell r="R17" t="str">
+            <v>25,72</v>
           </cell>
           <cell r="S17" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2434,17 +2435,17 @@
           <cell r="N18" t="str">
             <v>Enseignement Agricole</v>
           </cell>
-          <cell r="O18">
-            <v>42005</v>
-          </cell>
-          <cell r="P18">
-            <v>4.24931506849315</v>
+          <cell r="O18" t="str">
+            <v>01/01/2015</v>
+          </cell>
+          <cell r="P18" t="str">
+            <v>4,24931506849315</v>
           </cell>
           <cell r="Q18" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R18">
-            <v>10.210000000000001</v>
+          <cell r="R18" t="str">
+            <v>10,21</v>
           </cell>
           <cell r="S18" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2476,17 +2477,17 @@
           <cell r="N19" t="str">
             <v>Archives définitives</v>
           </cell>
-          <cell r="O19">
-            <v>42095</v>
-          </cell>
-          <cell r="P19">
-            <v>5.1726027397260301</v>
+          <cell r="O19" t="str">
+            <v>01/04/2015</v>
+          </cell>
+          <cell r="P19" t="str">
+            <v>5,17260273972603</v>
           </cell>
           <cell r="Q19" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R19">
-            <v>18.850000000000001</v>
+          <cell r="R19" t="str">
+            <v>18,85</v>
           </cell>
           <cell r="S19" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2517,20 +2518,20 @@
           <cell r="N20" t="str">
             <v>Données culturelles transverses</v>
           </cell>
-          <cell r="O20">
-            <v>42095</v>
-          </cell>
-          <cell r="P20">
-            <v>3.4219178082191801</v>
+          <cell r="O20" t="str">
+            <v>01/04/2015</v>
+          </cell>
+          <cell r="P20" t="str">
+            <v>3,42191780821918</v>
           </cell>
           <cell r="Q20" t="str">
             <v>Expérimentation</v>
           </cell>
-          <cell r="R20">
-            <v>0.3</v>
+          <cell r="R20" t="str">
+            <v>0,3</v>
           </cell>
           <cell r="S20" t="str">
-            <v>&lt; 5 M€</v>
+            <v>moins de 5M€</v>
           </cell>
         </row>
         <row r="21">
@@ -2558,17 +2559,17 @@
           <cell r="N21" t="str">
             <v>Achats</v>
           </cell>
-          <cell r="O21">
-            <v>42095</v>
-          </cell>
-          <cell r="P21">
-            <v>2.5890410958904102</v>
+          <cell r="O21" t="str">
+            <v>01/04/2015</v>
+          </cell>
+          <cell r="P21" t="str">
+            <v>2,58904109589041</v>
           </cell>
           <cell r="Q21" t="str">
             <v>Terminé</v>
           </cell>
-          <cell r="R21">
-            <v>9.66</v>
+          <cell r="R21" t="str">
+            <v>9,66</v>
           </cell>
           <cell r="S21" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2599,17 +2600,17 @@
           <cell r="N22" t="str">
             <v>Archives définitives</v>
           </cell>
-          <cell r="O22">
-            <v>42095</v>
-          </cell>
-          <cell r="P22">
-            <v>6.25479452054795</v>
+          <cell r="O22" t="str">
+            <v>01/04/2015</v>
+          </cell>
+          <cell r="P22" t="str">
+            <v>6,25479452054795</v>
           </cell>
           <cell r="Q22" t="str">
             <v>Cadrage</v>
           </cell>
-          <cell r="R22">
-            <v>17.5</v>
+          <cell r="R22" t="str">
+            <v>17,5</v>
           </cell>
           <cell r="S22" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2641,20 +2642,20 @@
           <cell r="N23" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O23">
-            <v>41730</v>
-          </cell>
-          <cell r="P23">
-            <v>6.6739726027397301</v>
+          <cell r="O23" t="str">
+            <v>01/04/2014</v>
+          </cell>
+          <cell r="P23" t="str">
+            <v>6,67397260273973</v>
           </cell>
           <cell r="Q23" t="str">
             <v>Expérimentation</v>
           </cell>
-          <cell r="R23">
-            <v>126.04</v>
+          <cell r="R23" t="str">
+            <v>126,04</v>
           </cell>
           <cell r="S23" t="str">
-            <v>&gt; 100 M€</v>
+            <v>plus de 100 M€</v>
           </cell>
         </row>
         <row r="24">
@@ -2682,17 +2683,17 @@
           <cell r="N24" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O24">
-            <v>41646</v>
-          </cell>
-          <cell r="P24">
-            <v>7.5643835616438402</v>
+          <cell r="O24" t="str">
+            <v>07/01/2014</v>
+          </cell>
+          <cell r="P24" t="str">
+            <v>7,56438356164384</v>
           </cell>
           <cell r="Q24" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R24">
-            <v>14.96</v>
+          <cell r="R24" t="str">
+            <v>14,96</v>
           </cell>
           <cell r="S24" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2724,17 +2725,17 @@
           <cell r="N25" t="str">
             <v>Relation Fournisseurs</v>
           </cell>
-          <cell r="O25">
-            <v>41548</v>
-          </cell>
-          <cell r="P25">
-            <v>4.1698630136986301</v>
+          <cell r="O25" t="str">
+            <v>01/10/2013</v>
+          </cell>
+          <cell r="P25" t="str">
+            <v>4,16986301369863</v>
           </cell>
           <cell r="Q25" t="str">
             <v>Terminé</v>
           </cell>
-          <cell r="R25">
-            <v>33.229999999999997</v>
+          <cell r="R25" t="str">
+            <v>33,23</v>
           </cell>
           <cell r="S25" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2758,7 +2759,7 @@
             <v>https://ensap.gouv.fr</v>
           </cell>
           <cell r="L26" t="str">
-            <v>Gestion fiscale et financière de l'État et du secteur public local (P156)</v>
+            <v>156</v>
           </cell>
           <cell r="M26" t="str">
             <v>https://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/pdf/DBGPGMPGM156.pdf#page=35</v>
@@ -2766,17 +2767,17 @@
           <cell r="N26" t="str">
             <v>Relation avec les Agents</v>
           </cell>
-          <cell r="O26">
-            <v>41548</v>
-          </cell>
-          <cell r="P26">
-            <v>6.1698630136986301</v>
+          <cell r="O26" t="str">
+            <v>01/10/2013</v>
+          </cell>
+          <cell r="P26" t="str">
+            <v>6,16986301369863</v>
           </cell>
           <cell r="Q26" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R26">
-            <v>12.71</v>
+          <cell r="R26" t="str">
+            <v>12,71</v>
           </cell>
           <cell r="S26" t="str">
             <v>entre 9 et 20 M€</v>
@@ -2807,20 +2808,20 @@
           <cell r="N27" t="str">
             <v>Fiscalité indirecte, Dédouanement et gestion des imports &amp; exports</v>
           </cell>
-          <cell r="O27">
-            <v>40269</v>
-          </cell>
-          <cell r="P27">
-            <v>9.4246575342465793</v>
+          <cell r="O27" t="str">
+            <v>01/04/2010</v>
+          </cell>
+          <cell r="P27" t="str">
+            <v>9,42465753424658</v>
           </cell>
           <cell r="Q27" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R27">
-            <v>4.24</v>
+          <cell r="R27" t="str">
+            <v>4,24</v>
           </cell>
           <cell r="S27" t="str">
-            <v>&lt; 5 M€</v>
+            <v>moins de 5M€</v>
           </cell>
         </row>
         <row r="28">
@@ -2840,7 +2841,7 @@
             <v/>
           </cell>
           <cell r="L28" t="str">
-            <v>Gestion fiscale et financière de l'État et du secteur public local (P156)</v>
+            <v>156</v>
           </cell>
           <cell r="M28" t="str">
             <v>https://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/pdf/DBGPGMPGM156.pdf#page=34</v>
@@ -2848,17 +2849,17 @@
           <cell r="N28" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O28">
-            <v>41913</v>
-          </cell>
-          <cell r="P28">
-            <v>6.75068493150685</v>
+          <cell r="O28" t="str">
+            <v>01/10/2014</v>
+          </cell>
+          <cell r="P28" t="str">
+            <v>6,75068493150685</v>
           </cell>
           <cell r="Q28" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R28">
-            <v>46.1</v>
+          <cell r="R28" t="str">
+            <v>46,1</v>
           </cell>
           <cell r="S28" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2889,17 +2890,17 @@
           <cell r="N29" t="str">
             <v>Gestion publique</v>
           </cell>
-          <cell r="O29">
-            <v>41791</v>
-          </cell>
-          <cell r="P29">
-            <v>8.0054794520548</v>
+          <cell r="O29" t="str">
+            <v>01/06/2014</v>
+          </cell>
+          <cell r="P29" t="str">
+            <v>8,0054794520548</v>
           </cell>
           <cell r="Q29" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R29">
-            <v>28.04</v>
+          <cell r="R29" t="str">
+            <v>28,04</v>
           </cell>
           <cell r="S29" t="str">
             <v>entre 20 et 100 M€</v>
@@ -2930,17 +2931,17 @@
           <cell r="N30" t="str">
             <v>Fiscalité indirecte, Dédouanement et gestion des imports &amp; exports</v>
           </cell>
-          <cell r="O30">
-            <v>41883</v>
-          </cell>
-          <cell r="P30">
-            <v>4.5808219178082199</v>
+          <cell r="O30" t="str">
+            <v>01/09/2014</v>
+          </cell>
+          <cell r="P30" t="str">
+            <v>4,58082191780822</v>
           </cell>
           <cell r="Q30" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R30">
-            <v>5.58</v>
+          <cell r="R30" t="str">
+            <v>5,58</v>
           </cell>
           <cell r="S30" t="str">
             <v>entre 5 et 9 M€</v>
@@ -2971,17 +2972,17 @@
           <cell r="N31" t="str">
             <v>Gestion des Systèmes d'Information et de Communication</v>
           </cell>
-          <cell r="O31">
-            <v>42005</v>
-          </cell>
-          <cell r="P31">
-            <v>10.923287671232901</v>
+          <cell r="O31" t="str">
+            <v>01/01/2015</v>
+          </cell>
+          <cell r="P31" t="str">
+            <v>10,9232876712329</v>
           </cell>
           <cell r="Q31" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R31">
-            <v>11.9</v>
+          <cell r="R31" t="str">
+            <v>11,9</v>
           </cell>
           <cell r="S31" t="str">
             <v>entre 9 et 20 M€</v>
@@ -3006,7 +3007,7 @@
             <v>http://www.economie.gouv.fr/cisirh/renoirh</v>
           </cell>
           <cell r="L32" t="str">
-            <v>Conduite et pilotage des politiques économiques et financières (P218)</v>
+            <v>218</v>
           </cell>
           <cell r="M32" t="str">
             <v>http://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/pdf/DBGPGMPGM218.pdf#page=24</v>
@@ -3014,17 +3015,17 @@
           <cell r="N32" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O32">
-            <v>40544</v>
-          </cell>
-          <cell r="P32">
-            <v>8.0054794520548</v>
+          <cell r="O32" t="str">
+            <v>01/01/2011</v>
+          </cell>
+          <cell r="P32" t="str">
+            <v>8,0054794520548</v>
           </cell>
           <cell r="Q32" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R32">
-            <v>43.5</v>
+          <cell r="R32" t="str">
+            <v>43,5</v>
           </cell>
           <cell r="S32" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3055,17 +3056,17 @@
           <cell r="N33" t="str">
             <v>Lutte contre la fraude</v>
           </cell>
-          <cell r="O33">
-            <v>41883</v>
-          </cell>
-          <cell r="P33">
-            <v>3.6630136986301398</v>
+          <cell r="O33" t="str">
+            <v>01/09/2014</v>
+          </cell>
+          <cell r="P33" t="str">
+            <v>3,66301369863014</v>
           </cell>
           <cell r="Q33" t="str">
             <v>Expérimentation</v>
           </cell>
-          <cell r="R33">
-            <v>10.050000000000001</v>
+          <cell r="R33" t="str">
+            <v>10,05</v>
           </cell>
           <cell r="S33" t="str">
             <v>entre 9 et 20 M€</v>
@@ -3089,7 +3090,7 @@
             <v/>
           </cell>
           <cell r="L34" t="str">
-            <v>Gestion fiscale et financière de l'État et du secteur public local (P156) / Action de la France en Europe et dans le monde (P105)</v>
+            <v>156 / 105</v>
           </cell>
           <cell r="M34" t="str">
             <v>http://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/pdf/DBGPGMPGM156.pdf#page=32</v>
@@ -3097,20 +3098,20 @@
           <cell r="N34" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O34">
-            <v>39083</v>
-          </cell>
-          <cell r="P34">
-            <v>11.421917808219201</v>
+          <cell r="O34" t="str">
+            <v>01/01/2007</v>
+          </cell>
+          <cell r="P34" t="str">
+            <v>11,4219178082192</v>
           </cell>
           <cell r="Q34" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R34">
-            <v>161.69999999999999</v>
+          <cell r="R34" t="str">
+            <v>161,7</v>
           </cell>
           <cell r="S34" t="str">
-            <v>&gt; 100 M€</v>
+            <v>plus de 100 M€</v>
           </cell>
         </row>
         <row r="35">
@@ -3141,20 +3142,20 @@
           <cell r="N35" t="str">
             <v>Fiscalité</v>
           </cell>
-          <cell r="O35">
-            <v>42370</v>
-          </cell>
-          <cell r="P35">
-            <v>4.6712328767123301</v>
+          <cell r="O35" t="str">
+            <v>01/01/2016</v>
+          </cell>
+          <cell r="P35" t="str">
+            <v>4,67123287671233</v>
           </cell>
           <cell r="Q35" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R35">
-            <v>194.98</v>
+          <cell r="R35" t="str">
+            <v>194,98</v>
           </cell>
           <cell r="S35" t="str">
-            <v>&gt; 100 M€</v>
+            <v>plus de 100 M€</v>
           </cell>
         </row>
         <row r="36">
@@ -3180,18 +3181,18 @@
             <v/>
           </cell>
           <cell r="N36" t="str">
-            <v/>
-          </cell>
-          <cell r="O36">
-            <v>42430</v>
-          </cell>
-          <cell r="P36">
-            <v>3.25205479452055</v>
+            <v>Etat civil</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>01/03/2016</v>
+          </cell>
+          <cell r="P36" t="str">
+            <v>3,25205479452055</v>
           </cell>
           <cell r="Q36" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R36">
+          <cell r="R36" t="str">
             <v>5</v>
           </cell>
           <cell r="S36" t="str">
@@ -3228,17 +3229,17 @@
           <cell r="N37" t="str">
             <v>Achats</v>
           </cell>
-          <cell r="O37">
-            <v>42370</v>
-          </cell>
-          <cell r="P37">
+          <cell r="O37" t="str">
+            <v>01/01/2016</v>
+          </cell>
+          <cell r="P37" t="str">
             <v>4</v>
           </cell>
           <cell r="Q37" t="str">
             <v>Cadrage</v>
           </cell>
-          <cell r="R37">
-            <v>6.77</v>
+          <cell r="R37" t="str">
+            <v>6,77</v>
           </cell>
           <cell r="S37" t="str">
             <v>entre 5 et 9 M€</v>
@@ -3269,17 +3270,17 @@
           <cell r="N38" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O38">
-            <v>42703</v>
-          </cell>
-          <cell r="P38">
-            <v>5.7589041095890403</v>
+          <cell r="O38" t="str">
+            <v>29/11/2016</v>
+          </cell>
+          <cell r="P38" t="str">
+            <v>5,75890410958904</v>
           </cell>
           <cell r="Q38" t="str">
             <v>Cadrage</v>
           </cell>
-          <cell r="R38">
-            <v>23.34</v>
+          <cell r="R38" t="str">
+            <v>23,34</v>
           </cell>
           <cell r="S38" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3311,17 +3312,17 @@
           <cell r="N39" t="str">
             <v>Gestion de la relation avec les Usagers</v>
           </cell>
-          <cell r="O39">
-            <v>42095</v>
-          </cell>
-          <cell r="P39">
-            <v>5.0054794520548</v>
+          <cell r="O39" t="str">
+            <v>01/04/2015</v>
+          </cell>
+          <cell r="P39" t="str">
+            <v>5,0054794520548</v>
           </cell>
           <cell r="Q39" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R39">
-            <v>24.44</v>
+          <cell r="R39" t="str">
+            <v>24,44</v>
           </cell>
           <cell r="S39" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3361,17 +3362,17 @@
           <cell r="N40" t="str">
             <v>Examens et Concours</v>
           </cell>
-          <cell r="O40">
-            <v>40513</v>
-          </cell>
-          <cell r="P40">
-            <v>10.758904109589</v>
+          <cell r="O40" t="str">
+            <v>01/12/2010</v>
+          </cell>
+          <cell r="P40" t="str">
+            <v>10,758904109589</v>
           </cell>
           <cell r="Q40" t="str">
             <v>Expérimentation</v>
           </cell>
-          <cell r="R40">
-            <v>40.049999999999997</v>
+          <cell r="R40" t="str">
+            <v>40,05</v>
           </cell>
           <cell r="S40" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3402,17 +3403,17 @@
           <cell r="N41" t="str">
             <v>Finances</v>
           </cell>
-          <cell r="O41">
-            <v>41883</v>
-          </cell>
-          <cell r="P41">
-            <v>8.0054794520547894</v>
+          <cell r="O41" t="str">
+            <v>01/09/2014</v>
+          </cell>
+          <cell r="P41" t="str">
+            <v>8,00547945205479</v>
           </cell>
           <cell r="Q41" t="str">
             <v>Cadrage</v>
           </cell>
-          <cell r="R41">
-            <v>72.5</v>
+          <cell r="R41" t="str">
+            <v>72,5</v>
           </cell>
           <cell r="S41" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3448,20 +3449,20 @@
           <cell r="N42" t="str">
             <v>Scolarité de l'élève</v>
           </cell>
-          <cell r="O42">
-            <v>41791</v>
-          </cell>
-          <cell r="P42">
-            <v>4.0027397260274</v>
+          <cell r="O42" t="str">
+            <v>01/06/2014</v>
+          </cell>
+          <cell r="P42" t="str">
+            <v>4,0027397260274</v>
           </cell>
           <cell r="Q42" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R42">
-            <v>2.04</v>
+          <cell r="R42" t="str">
+            <v>2,04</v>
           </cell>
           <cell r="S42" t="str">
-            <v>&lt; 5 M€</v>
+            <v>moins de 5M€</v>
           </cell>
         </row>
         <row r="43">
@@ -3494,17 +3495,17 @@
           <cell r="N43" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O43">
-            <v>42037</v>
-          </cell>
-          <cell r="P43">
-            <v>5.9150684931506801</v>
+          <cell r="O43" t="str">
+            <v>02/02/2015</v>
+          </cell>
+          <cell r="P43" t="str">
+            <v>5,91506849315068</v>
           </cell>
           <cell r="Q43" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R43">
-            <v>17.399999999999999</v>
+          <cell r="R43" t="str">
+            <v>17,4</v>
           </cell>
           <cell r="S43" t="str">
             <v>entre 9 et 20 M€</v>
@@ -3529,7 +3530,7 @@
             <v>http://www.sirhen.education.fr/</v>
           </cell>
           <cell r="L44" t="str">
-            <v>Soutien de la politique de l'éducation nationale (P214)</v>
+            <v>214</v>
           </cell>
           <cell r="M44" t="str">
             <v>http://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/pdf/DBGPGMPGM214.pdf</v>
@@ -3537,20 +3538,20 @@
           <cell r="N44" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O44">
-            <v>39783</v>
-          </cell>
-          <cell r="P44">
-            <v>12.0082191780822</v>
+          <cell r="O44" t="str">
+            <v>01/12/2008</v>
+          </cell>
+          <cell r="P44" t="str">
+            <v>12,0082191780822</v>
           </cell>
           <cell r="Q44" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R44">
-            <v>496.48</v>
+          <cell r="R44" t="str">
+            <v>496,48</v>
           </cell>
           <cell r="S44" t="str">
-            <v>&gt; 100 M€</v>
+            <v>plus de 100 M€</v>
           </cell>
         </row>
         <row r="45">
@@ -3570,7 +3571,7 @@
             <v/>
           </cell>
           <cell r="L45" t="str">
-            <v>Conduite et pilotage des politiques de l'écologie, du développement et de la mobilité durables (P217)</v>
+            <v>217</v>
           </cell>
           <cell r="M45" t="str">
             <v>En attente publication PAP 2017</v>
@@ -3578,17 +3579,17 @@
           <cell r="N45" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O45">
-            <v>42644</v>
-          </cell>
-          <cell r="P45">
-            <v>2.6630136986301398</v>
+          <cell r="O45" t="str">
+            <v>01/10/2016</v>
+          </cell>
+          <cell r="P45" t="str">
+            <v>2,66301369863014</v>
           </cell>
           <cell r="Q45" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R45">
-            <v>35.06</v>
+          <cell r="R45" t="str">
+            <v>35,06</v>
           </cell>
           <cell r="S45" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3619,20 +3620,20 @@
           <cell r="N46" t="str">
             <v>Infrastructure, Transports et Mer</v>
           </cell>
-          <cell r="O46">
-            <v>42461</v>
-          </cell>
-          <cell r="P46">
-            <v>1.4164383561643801</v>
+          <cell r="O46" t="str">
+            <v>01/04/2016</v>
+          </cell>
+          <cell r="P46" t="str">
+            <v>1,41643835616438</v>
           </cell>
           <cell r="Q46" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R46">
-            <v>1.02</v>
+          <cell r="R46" t="str">
+            <v>1,02</v>
           </cell>
           <cell r="S46" t="str">
-            <v>&lt; 5 M€</v>
+            <v>moins de 5M€</v>
           </cell>
         </row>
         <row r="47">
@@ -3664,17 +3665,17 @@
           <cell r="N47" t="str">
             <v>Information géographique</v>
           </cell>
-          <cell r="O47">
-            <v>42156</v>
-          </cell>
-          <cell r="P47">
-            <v>4.5013698630137</v>
+          <cell r="O47" t="str">
+            <v>01/06/2015</v>
+          </cell>
+          <cell r="P47" t="str">
+            <v>4,5013698630137</v>
           </cell>
           <cell r="Q47" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R47">
-            <v>14.24</v>
+          <cell r="R47" t="str">
+            <v>14,24</v>
           </cell>
           <cell r="S47" t="str">
             <v>entre 9 et 20 M€</v>
@@ -3705,17 +3706,17 @@
           <cell r="N48" t="str">
             <v>Gestion des Systèmes d'Information et de Communication</v>
           </cell>
-          <cell r="O48">
-            <v>42005</v>
-          </cell>
-          <cell r="P48">
-            <v>3.79178082191781</v>
+          <cell r="O48" t="str">
+            <v>01/01/2015</v>
+          </cell>
+          <cell r="P48" t="str">
+            <v>3,79178082191781</v>
           </cell>
           <cell r="Q48" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R48">
-            <v>40.1</v>
+          <cell r="R48" t="str">
+            <v>40,1</v>
           </cell>
           <cell r="S48" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3742,25 +3743,25 @@
             <v/>
           </cell>
           <cell r="L49" t="str">
-            <v>Conduite et pilotage des politiques de l'intérieur (P216)</v>
+            <v>216 -CPPI</v>
           </cell>
           <cell r="M49" t="str">
             <v/>
           </cell>
           <cell r="N49" t="str">
-            <v>CONTENTIEUX DE L’ADMINISTRATION</v>
-          </cell>
-          <cell r="O49">
-            <v>42156</v>
-          </cell>
-          <cell r="P49">
-            <v>3.0821917808219199</v>
+            <v>Contentieux de l'administation</v>
+          </cell>
+          <cell r="O49" t="str">
+            <v>01/06/2015</v>
+          </cell>
+          <cell r="P49" t="str">
+            <v>3,08219178082192</v>
           </cell>
           <cell r="Q49" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R49">
-            <v>9.6999999999999993</v>
+          <cell r="R49" t="str">
+            <v>9,7</v>
           </cell>
           <cell r="S49" t="str">
             <v>entre 9 et 20 M€</v>
@@ -3801,17 +3802,17 @@
           <cell r="N50" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O50">
-            <v>41640</v>
-          </cell>
-          <cell r="P50">
-            <v>5.4958904109589</v>
+          <cell r="O50" t="str">
+            <v>01/01/2014</v>
+          </cell>
+          <cell r="P50" t="str">
+            <v>5,4958904109589</v>
           </cell>
           <cell r="Q50" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R50">
-            <v>38.26</v>
+          <cell r="R50" t="str">
+            <v>38,26</v>
           </cell>
           <cell r="S50" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3842,17 +3843,17 @@
           <cell r="N51" t="str">
             <v>Délivrance de visas d'entrée en France</v>
           </cell>
-          <cell r="O51">
-            <v>41640</v>
-          </cell>
-          <cell r="P51">
+          <cell r="O51" t="str">
+            <v>01/01/2014</v>
+          </cell>
+          <cell r="P51" t="str">
             <v>5</v>
           </cell>
           <cell r="Q51" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R51">
-            <v>33.200000000000003</v>
+          <cell r="R51" t="str">
+            <v>33,2</v>
           </cell>
           <cell r="S51" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3883,20 +3884,20 @@
           <cell r="N52" t="str">
             <v>Gestion des Systèmes d'Information et de Communication</v>
           </cell>
-          <cell r="O52">
-            <v>41791</v>
-          </cell>
-          <cell r="P52">
-            <v>7.5890410958904102</v>
+          <cell r="O52" t="str">
+            <v>01/06/2014</v>
+          </cell>
+          <cell r="P52" t="str">
+            <v>7,58904109589041</v>
           </cell>
           <cell r="Q52" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R52">
+          <cell r="R52" t="str">
             <v>352</v>
           </cell>
           <cell r="S52" t="str">
-            <v>&gt; 100 M€</v>
+            <v>plus de 100 M€</v>
           </cell>
         </row>
         <row r="53">
@@ -3925,17 +3926,17 @@
           <cell r="N53" t="str">
             <v>Gestion des Systèmes d'Information et de Communication</v>
           </cell>
-          <cell r="O53">
-            <v>41883</v>
-          </cell>
-          <cell r="P53">
-            <v>4.0821917808219199</v>
+          <cell r="O53" t="str">
+            <v>01/09/2014</v>
+          </cell>
+          <cell r="P53" t="str">
+            <v>4,08219178082192</v>
           </cell>
           <cell r="Q53" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R53">
-            <v>81.599999999999994</v>
+          <cell r="R53" t="str">
+            <v>81,6</v>
           </cell>
           <cell r="S53" t="str">
             <v>entre 20 et 100 M€</v>
@@ -3967,8 +3968,8 @@
           <cell r="N54" t="str">
             <v>Sécurité intérieure</v>
           </cell>
-          <cell r="O54">
-            <v>42036</v>
+          <cell r="O54" t="str">
+            <v>01/02/2015</v>
           </cell>
           <cell r="P54" t="str">
             <v>6.75</v>
@@ -3976,8 +3977,8 @@
           <cell r="Q54" t="str">
             <v>Cadrage</v>
           </cell>
-          <cell r="R54">
-            <v>12.31</v>
+          <cell r="R54" t="str">
+            <v>12,31</v>
           </cell>
           <cell r="S54" t="str">
             <v>entre 9 et 20 M€</v>
@@ -4002,7 +4003,7 @@
             <v>http://www.interieur.gouv.fr/Actualites/L-actu-du-Ministere/Le-plan-prefectures-nouvelle-generation</v>
           </cell>
           <cell r="L55" t="str">
-            <v>Administration territoriale (P307)</v>
+            <v>Administration territoriale (P307) et ANTS</v>
           </cell>
           <cell r="M55" t="str">
             <v>http://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/pdf/DBGPGMPGM307.pdf</v>
@@ -4010,17 +4011,17 @@
           <cell r="N55" t="str">
             <v>Administration générale et territoriale de l’État</v>
           </cell>
-          <cell r="O55">
-            <v>42166</v>
-          </cell>
-          <cell r="P55">
-            <v>1.83561643835616</v>
+          <cell r="O55" t="str">
+            <v>11/06/2015</v>
+          </cell>
+          <cell r="P55" t="str">
+            <v>1,83561643835616</v>
           </cell>
           <cell r="Q55" t="str">
             <v>Terminé</v>
           </cell>
-          <cell r="R55">
-            <v>17.14</v>
+          <cell r="R55" t="str">
+            <v>17,14</v>
           </cell>
           <cell r="S55" t="str">
             <v>entre 9 et 20 M€</v>
@@ -4042,9 +4043,6 @@
           <cell r="J56" t="str">
             <v>Oui</v>
           </cell>
-          <cell r="K56" t="str">
-            <v>http://www.interieur.gouv.fr/Actualites/L-actu-du-Ministere/Lancement-de-l-application-mobile-SAIP</v>
-          </cell>
           <cell r="L56" t="str">
             <v>Sécurité civile (P161)</v>
           </cell>
@@ -4054,17 +4052,17 @@
           <cell r="N56" t="str">
             <v>Alerte &amp; Gestion de crises</v>
           </cell>
-          <cell r="O56">
-            <v>39448</v>
-          </cell>
-          <cell r="P56">
-            <v>17.0109589041096</v>
+          <cell r="O56" t="str">
+            <v>01/01/2008</v>
+          </cell>
+          <cell r="P56" t="str">
+            <v>17,0109589041096</v>
           </cell>
           <cell r="Q56" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R56">
-            <v>81.599999999999994</v>
+          <cell r="R56" t="str">
+            <v>81,6</v>
           </cell>
           <cell r="S56" t="str">
             <v>entre 20 et 100 M€</v>
@@ -4093,7 +4091,7 @@
             <v/>
           </cell>
           <cell r="L57" t="str">
-            <v>Gendarmerie nationale (P152)</v>
+            <v>152</v>
           </cell>
           <cell r="M57" t="str">
             <v>http://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/html/DBGPGMJPEPGM152.htm</v>
@@ -4101,17 +4099,17 @@
           <cell r="N57" t="str">
             <v>Ressources Humaines</v>
           </cell>
-          <cell r="O57">
-            <v>41913</v>
-          </cell>
-          <cell r="P57">
-            <v>4.25205479452055</v>
+          <cell r="O57" t="str">
+            <v>01/10/2014</v>
+          </cell>
+          <cell r="P57" t="str">
+            <v>4,25205479452055</v>
           </cell>
           <cell r="Q57" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R57">
-            <v>10.31</v>
+          <cell r="R57" t="str">
+            <v>10,31</v>
           </cell>
           <cell r="S57" t="str">
             <v>entre 9 et 20 M€</v>
@@ -4142,17 +4140,17 @@
           <cell r="N58" t="str">
             <v>Gestion des personnes mises sous main de justice</v>
           </cell>
-          <cell r="O58">
-            <v>40909</v>
-          </cell>
-          <cell r="P58">
-            <v>7.9589041095890396</v>
+          <cell r="O58" t="str">
+            <v>01/01/2012</v>
+          </cell>
+          <cell r="P58" t="str">
+            <v>7,95890410958904</v>
           </cell>
           <cell r="Q58" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R58">
-            <v>20.46</v>
+          <cell r="R58" t="str">
+            <v>20,46</v>
           </cell>
           <cell r="S58" t="str">
             <v>entre 20 et 100 M€</v>
@@ -4185,17 +4183,17 @@
           <cell r="N59" t="str">
             <v>Justice Pénale</v>
           </cell>
-          <cell r="O59">
-            <v>41640</v>
-          </cell>
-          <cell r="P59">
-            <v>7.0027397260274</v>
+          <cell r="O59" t="str">
+            <v>01/01/2014</v>
+          </cell>
+          <cell r="P59" t="str">
+            <v>7,0027397260274</v>
           </cell>
           <cell r="Q59" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R59">
-            <v>9.91</v>
+          <cell r="R59" t="str">
+            <v>9,91</v>
           </cell>
           <cell r="S59" t="str">
             <v>entre 9 et 20 M€</v>
@@ -4228,17 +4226,17 @@
           <cell r="N60" t="str">
             <v>Relation avec les Autorités Administratives</v>
           </cell>
-          <cell r="O60">
-            <v>39448</v>
-          </cell>
-          <cell r="P60">
-            <v>13.0082191780822</v>
+          <cell r="O60" t="str">
+            <v>01/01/2008</v>
+          </cell>
+          <cell r="P60" t="str">
+            <v>13,0082191780822</v>
           </cell>
           <cell r="Q60" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R60">
-            <v>21.5</v>
+          <cell r="R60" t="str">
+            <v>21,5</v>
           </cell>
           <cell r="S60" t="str">
             <v>entre 20 et 100 M€</v>
@@ -4262,25 +4260,25 @@
             <v/>
           </cell>
           <cell r="L61" t="str">
-            <v>Conduite et pilotage de la politique de la justice (P310)</v>
+            <v>310</v>
           </cell>
           <cell r="M61" t="str">
             <v>http://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/pdf/DBGPGMPGM310.pdf</v>
           </cell>
           <cell r="N61" t="str">
-            <v>Ressources Humaines RH</v>
-          </cell>
-          <cell r="O61">
-            <v>41730</v>
-          </cell>
-          <cell r="P61">
-            <v>5.75342465753425</v>
+            <v>Ressources Humaines</v>
+          </cell>
+          <cell r="O61" t="str">
+            <v>01/04/2014</v>
+          </cell>
+          <cell r="P61" t="str">
+            <v>5,75342465753425</v>
           </cell>
           <cell r="Q61" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R61">
-            <v>38.6</v>
+          <cell r="R61" t="str">
+            <v>38,6</v>
           </cell>
           <cell r="S61" t="str">
             <v>entre 20 et 100 M€</v>
@@ -4311,20 +4309,20 @@
           <cell r="N62" t="str">
             <v>Justice Pénale</v>
           </cell>
-          <cell r="O62">
-            <v>38412</v>
-          </cell>
-          <cell r="P62">
-            <v>12.843835616438399</v>
+          <cell r="O62" t="str">
+            <v>01/03/2005</v>
+          </cell>
+          <cell r="P62" t="str">
+            <v>12,8438356164384</v>
           </cell>
           <cell r="Q62" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R62">
-            <v>151.4</v>
+          <cell r="R62" t="str">
+            <v>151,4</v>
           </cell>
           <cell r="S62" t="str">
-            <v>&gt; 100 M€</v>
+            <v>plus de 100 M€</v>
           </cell>
         </row>
         <row r="63">
@@ -4359,17 +4357,17 @@
           <cell r="N63" t="str">
             <v>Justice Civile, Sociale et Commerciale</v>
           </cell>
-          <cell r="O63">
-            <v>41699</v>
-          </cell>
-          <cell r="P63">
-            <v>11.843835616438399</v>
+          <cell r="O63" t="str">
+            <v>01/03/2014</v>
+          </cell>
+          <cell r="P63" t="str">
+            <v>11,8438356164384</v>
           </cell>
           <cell r="Q63" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R63">
-            <v>52.41</v>
+          <cell r="R63" t="str">
+            <v>52,41</v>
           </cell>
           <cell r="S63" t="str">
             <v>entre 20 et 100 M€</v>
@@ -4399,25 +4397,25 @@
             <v/>
           </cell>
           <cell r="L64" t="str">
-            <v>Conduite et pilotage des politiques de l'agriculture (P215) / Conduite et pilotage des politiques économiques et financières (P218)</v>
+            <v>215 et 218</v>
           </cell>
           <cell r="M64" t="str">
             <v/>
           </cell>
           <cell r="N64" t="str">
-            <v>solutions et infrastructures partagées</v>
-          </cell>
-          <cell r="O64">
-            <v>42389</v>
-          </cell>
-          <cell r="P64">
-            <v>4.9506849315068502</v>
+            <v>Solutions et infrastructures partagées</v>
+          </cell>
+          <cell r="O64" t="str">
+            <v>20/01/2016</v>
+          </cell>
+          <cell r="P64" t="str">
+            <v>4,95068493150685</v>
           </cell>
           <cell r="Q64" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R64">
-            <v>37.58</v>
+          <cell r="R64" t="str">
+            <v>37,58</v>
           </cell>
           <cell r="S64" t="str">
             <v>entre 20 et 100 M€</v>
@@ -4452,19 +4450,19 @@
             <v/>
           </cell>
           <cell r="N65" t="str">
-            <v>Ressources Humaines RH</v>
-          </cell>
-          <cell r="O65">
-            <v>41974</v>
-          </cell>
-          <cell r="P65">
-            <v>4.5013698630137</v>
+            <v>Ressources Humaines</v>
+          </cell>
+          <cell r="O65" t="str">
+            <v>01/12/2014</v>
+          </cell>
+          <cell r="P65" t="str">
+            <v>4,5013698630137</v>
           </cell>
           <cell r="Q65" t="str">
             <v>Déploiement</v>
           </cell>
-          <cell r="R65">
-            <v>5.39</v>
+          <cell r="R65" t="str">
+            <v>5,39</v>
           </cell>
           <cell r="S65" t="str">
             <v>entre 5 et 9 M€</v>
@@ -4489,7 +4487,7 @@
             <v/>
           </cell>
           <cell r="L66" t="str">
-            <v>Police nationale (P176)</v>
+            <v>176</v>
           </cell>
           <cell r="M66" t="str">
             <v>https://www.performance-publique.budget.gouv.fr/sites/performance_publique/files/farandole/ressources/2017/pap/html/DBGPGMJPEPGM176.htm</v>
@@ -4497,17 +4495,17 @@
           <cell r="N66" t="str">
             <v>Secours et gestion des risques</v>
           </cell>
-          <cell r="O66">
-            <v>42036</v>
-          </cell>
-          <cell r="P66">
-            <v>6.9178082191780801</v>
+          <cell r="O66" t="str">
+            <v>01/02/2015</v>
+          </cell>
+          <cell r="P66" t="str">
+            <v>6,91780821917808</v>
           </cell>
           <cell r="Q66" t="str">
             <v>Conception / Réalisation</v>
           </cell>
-          <cell r="R66">
-            <v>30.84</v>
+          <cell r="R66" t="str">
+            <v>30,84</v>
           </cell>
           <cell r="S66" t="str">
             <v>entre 20 et 100 M€</v>
@@ -5122,8 +5120,8 @@
   </sheetPr>
   <dimension ref="A1:Z294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -5132,7 +5130,7 @@
     <col min="2" max="2" width="48.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" style="14" customWidth="1"/>
     <col min="6" max="6" width="21" style="14" customWidth="1"/>
     <col min="7" max="7" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="8" bestFit="1" customWidth="1"/>
@@ -5220,9 +5218,9 @@
         <f>[1]Data!K6</f>
         <v>https://franceconnect.gouv.fr/                                https://partenaires.franceconnect.gouv.fr/</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="7" t="str">
         <f>[1]Data!O6</f>
-        <v>42736</v>
+        <v>01/01/2017</v>
       </c>
       <c r="H2" s="8" t="str">
         <f>[1]Data!P6</f>
@@ -5238,7 +5236,7 @@
       </c>
       <c r="K2" s="5" t="str">
         <f>[1]Data!S6</f>
-        <v>NA</v>
+        <v>en cadrage</v>
       </c>
       <c r="L2" s="5" t="str">
         <f>[1]Data!N6</f>
@@ -5282,21 +5280,21 @@
         <f>[1]Data!K7</f>
         <v>https://www.pnr.gouv.fr/</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="7" t="str">
         <f>[1]Data!O7</f>
-        <v>40725</v>
-      </c>
-      <c r="H3" s="8">
+        <v>01/07/2011</v>
+      </c>
+      <c r="H3" s="8" t="str">
         <f>[1]Data!P7</f>
-        <v>6.8027397260273998</v>
+        <v>6,8027397260274</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>[1]Data!Q7</f>
         <v>Expérimentation</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="9" t="str">
         <f>[1]Data!R7</f>
-        <v>53.02</v>
+        <v>53,02</v>
       </c>
       <c r="K3" s="5" t="str">
         <f>[1]Data!S7</f>
@@ -5352,21 +5350,21 @@
         <f>[1]Data!K8</f>
         <v/>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="7" t="str">
         <f>[1]Data!O8</f>
-        <v>42005</v>
-      </c>
-      <c r="H4" s="8">
+        <v>01/01/2015</v>
+      </c>
+      <c r="H4" s="8" t="str">
         <f>[1]Data!P8</f>
-        <v>3.24657534246575</v>
+        <v>3,24657534246575</v>
       </c>
       <c r="I4" s="5" t="str">
         <f>[1]Data!Q8</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="9" t="str">
         <f>[1]Data!R8</f>
-        <v>18.8</v>
+        <v>18,8</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>[1]Data!S8</f>
@@ -5417,21 +5415,21 @@
         <f>[1]Data!K9</f>
         <v>http://www.modernisation.gouv.fr/ladministration-change-avec-le-numerique/par-son-systeme-dinformation/vitam-vers-un-socle-d-archivage-electronique-commun-toute-l-administration</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="7" t="str">
         <f>[1]Data!O9</f>
-        <v>41456</v>
-      </c>
-      <c r="H5" s="8">
+        <v>01/07/2013</v>
+      </c>
+      <c r="H5" s="8" t="str">
         <f>[1]Data!P9</f>
-        <v>6.7561643835616403</v>
+        <v>6,75616438356164</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>[1]Data!Q9</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="9" t="str">
         <f>[1]Data!R9</f>
-        <v>26.3</v>
+        <v>26,3</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>[1]Data!S9</f>
@@ -5479,21 +5477,21 @@
         <f>[1]Data!K10</f>
         <v/>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="7" t="str">
         <f>[1]Data!O10</f>
-        <v>42384</v>
-      </c>
-      <c r="H6" s="8">
+        <v>15/01/2016</v>
+      </c>
+      <c r="H6" s="8" t="str">
         <f>[1]Data!P10</f>
-        <v>4.9643835616438396</v>
+        <v>4,96438356164384</v>
       </c>
       <c r="I6" s="5" t="str">
         <f>[1]Data!Q10</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="9" t="str">
         <f>[1]Data!R10</f>
-        <v>12.63</v>
+        <v>12,63</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>[1]Data!S10</f>
@@ -5541,21 +5539,21 @@
         <f>[1]Data!K11</f>
         <v/>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="7" t="str">
         <f>[1]Data!O11</f>
-        <v>41821</v>
-      </c>
-      <c r="H7" s="8">
+        <v>01/07/2014</v>
+      </c>
+      <c r="H7" s="8" t="str">
         <f>[1]Data!P11</f>
-        <v>4.5041095890411</v>
+        <v>4,5041095890411</v>
       </c>
       <c r="I7" s="5" t="str">
         <f>[1]Data!Q11</f>
         <v>Déploiement</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="9" t="str">
         <f>[1]Data!R11</f>
-        <v>10.1</v>
+        <v>10,1</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>[1]Data!S11</f>
@@ -5604,25 +5602,25 @@
         <f>[1]Data!K12</f>
         <v/>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="7" t="str">
         <f>[1]Data!O12</f>
-        <v>42345</v>
-      </c>
-      <c r="H8" s="8">
+        <v>07/12/2015</v>
+      </c>
+      <c r="H8" s="8" t="str">
         <f>[1]Data!P12</f>
-        <v>5.0712328767123296</v>
+        <v>5,07123287671233</v>
       </c>
       <c r="I8" s="5" t="str">
         <f>[1]Data!Q12</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="9" t="str">
         <f>[1]Data!R12</f>
-        <v>4.42</v>
+        <v>4,42</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>[1]Data!S12</f>
-        <v>&lt; 5 M€</v>
+        <v>moins de 5M€</v>
       </c>
       <c r="L8" s="5" t="str">
         <f>[1]Data!N12</f>
@@ -5673,21 +5671,21 @@
         <f>[1]Data!K13</f>
         <v>https://www.moncompteactivite.gouv.fr</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="7" t="str">
         <f>[1]Data!O13</f>
-        <v>42339</v>
-      </c>
-      <c r="H9" s="8">
+        <v>01/12/2015</v>
+      </c>
+      <c r="H9" s="8" t="str">
         <f>[1]Data!P13</f>
-        <v>3.5013698630137</v>
+        <v>3,5013698630137</v>
       </c>
       <c r="I9" s="5" t="str">
         <f>[1]Data!Q13</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="9" t="str">
         <f>[1]Data!R13</f>
-        <v>24.8</v>
+        <v>24,8</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>[1]Data!S13</f>
@@ -5739,21 +5737,21 @@
         <f>[1]Data!K14</f>
         <v>https://www.economie.gouv.fr/cisirh/renoirh</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="7" t="str">
         <f>[1]Data!O14</f>
-        <v>40909</v>
-      </c>
-      <c r="H10" s="8">
+        <v>01/01/2012</v>
+      </c>
+      <c r="H10" s="8" t="str">
         <f>[1]Data!P14</f>
-        <v>6.9205479452054801</v>
+        <v>6,92054794520548</v>
       </c>
       <c r="I10" s="5" t="str">
         <f>[1]Data!Q14</f>
         <v>Déploiement</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="9" t="str">
         <f>[1]Data!R14</f>
-        <v>27.1</v>
+        <v>27,1</v>
       </c>
       <c r="K10" s="5" t="str">
         <f>[1]Data!S14</f>
@@ -5765,7 +5763,7 @@
       </c>
       <c r="M10" s="5" t="str">
         <f>[1]Data!L14</f>
-        <v>Conduite et soutien des politiques sanitaires, sociales, du sport, de la jeunesse et de la vie associative (P124) / Conception, gestion et évaluation des politiques de l'emploi et du travail (P155)</v>
+        <v>124 / 155</v>
       </c>
       <c r="N10" s="5" t="str">
         <f>[1]Data!M14</f>
@@ -5805,21 +5803,21 @@
         <f>[1]Data!K15</f>
         <v>http://esante.gouv.fr/services/programme-si-samu</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="7" t="str">
         <f>[1]Data!O15</f>
-        <v>41883</v>
-      </c>
-      <c r="H11" s="8">
+        <v>01/09/2014</v>
+      </c>
+      <c r="H11" s="8" t="str">
         <f>[1]Data!P15</f>
-        <v>4.5808219178082199</v>
+        <v>4,58082191780822</v>
       </c>
       <c r="I11" s="5" t="str">
         <f>[1]Data!Q15</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="9" t="str">
         <f>[1]Data!R15</f>
-        <v>75.099999999999994</v>
+        <v>75,1</v>
       </c>
       <c r="K11" s="5" t="str">
         <f>[1]Data!S15</f>
@@ -5867,21 +5865,21 @@
         <f>[1]Data!K16</f>
         <v/>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="7" t="str">
         <f>[1]Data!O16</f>
-        <v>41275</v>
-      </c>
-      <c r="H12" s="8">
+        <v>01/01/2013</v>
+      </c>
+      <c r="H12" s="8" t="str">
         <f>[1]Data!P16</f>
-        <v>6.3287671232876699</v>
+        <v>6,32876712328767</v>
       </c>
       <c r="I12" s="5" t="str">
         <f>[1]Data!Q16</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="9" t="str">
         <f>[1]Data!R16</f>
-        <v>16.09</v>
+        <v>16,09</v>
       </c>
       <c r="K12" s="5" t="str">
         <f>[1]Data!S16</f>
@@ -5929,21 +5927,21 @@
         <f>[1]Data!K17</f>
         <v/>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="7" t="str">
         <f>[1]Data!O17</f>
-        <v>41244</v>
-      </c>
-      <c r="H13" s="8">
+        <v>01/12/2012</v>
+      </c>
+      <c r="H13" s="8" t="str">
         <f>[1]Data!P17</f>
-        <v>5.75342465753425</v>
+        <v>5,75342465753425</v>
       </c>
       <c r="I13" s="5" t="str">
         <f>[1]Data!Q17</f>
         <v>Déploiement</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="9" t="str">
         <f>[1]Data!R17</f>
-        <v>25.72</v>
+        <v>25,72</v>
       </c>
       <c r="K13" s="5" t="str">
         <f>[1]Data!S17</f>
@@ -5991,21 +5989,21 @@
         <f>[1]Data!K18</f>
         <v>http://www.chlorofil.fr/systeme-educatif-agricole/organisation-orientations-et-evolution-de-lea/systeme-dinformation-de-lenseignement-agricole/sirena.html</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="7" t="str">
         <f>[1]Data!O18</f>
-        <v>42005</v>
-      </c>
-      <c r="H14" s="8">
+        <v>01/01/2015</v>
+      </c>
+      <c r="H14" s="8" t="str">
         <f>[1]Data!P18</f>
-        <v>4.24931506849315</v>
+        <v>4,24931506849315</v>
       </c>
       <c r="I14" s="5" t="str">
         <f>[1]Data!Q18</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="9" t="str">
         <f>[1]Data!R18</f>
-        <v>10.210000000000001</v>
+        <v>10,21</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>[1]Data!S18</f>
@@ -6054,21 +6052,21 @@
         <f>[1]Data!K19</f>
         <v>http://www.archives-nationales.culture.gouv.fr/fr/web/guest/adamant-projet-d-avenir</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="7" t="str">
         <f>[1]Data!O19</f>
-        <v>42095</v>
-      </c>
-      <c r="H15" s="8">
+        <v>01/04/2015</v>
+      </c>
+      <c r="H15" s="8" t="str">
         <f>[1]Data!P19</f>
-        <v>5.1726027397260301</v>
+        <v>5,17260273972603</v>
       </c>
       <c r="I15" s="5" t="str">
         <f>[1]Data!Q19</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="9" t="str">
         <f>[1]Data!R19</f>
-        <v>18.850000000000001</v>
+        <v>18,85</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>[1]Data!S19</f>
@@ -6116,25 +6114,25 @@
         <f>[1]Data!K20</f>
         <v/>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="7" t="str">
         <f>[1]Data!O20</f>
-        <v>42095</v>
-      </c>
-      <c r="H16" s="8">
+        <v>01/04/2015</v>
+      </c>
+      <c r="H16" s="8" t="str">
         <f>[1]Data!P20</f>
-        <v>3.4219178082191801</v>
+        <v>3,42191780821918</v>
       </c>
       <c r="I16" s="5" t="str">
         <f>[1]Data!Q20</f>
         <v>Expérimentation</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="9" t="str">
         <f>[1]Data!R20</f>
-        <v>0.3</v>
+        <v>0,3</v>
       </c>
       <c r="K16" s="5" t="str">
         <f>[1]Data!S20</f>
-        <v>&lt; 5 M€</v>
+        <v>moins de 5M€</v>
       </c>
       <c r="L16" s="5" t="str">
         <f>[1]Data!N20</f>
@@ -6178,21 +6176,21 @@
         <f>[1]Data!K21</f>
         <v/>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="7" t="str">
         <f>[1]Data!O21</f>
-        <v>42095</v>
-      </c>
-      <c r="H17" s="8">
+        <v>01/04/2015</v>
+      </c>
+      <c r="H17" s="8" t="str">
         <f>[1]Data!P21</f>
-        <v>2.5890410958904102</v>
+        <v>2,58904109589041</v>
       </c>
       <c r="I17" s="5" t="str">
         <f>[1]Data!Q21</f>
         <v>Terminé</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="9" t="str">
         <f>[1]Data!R21</f>
-        <v>9.66</v>
+        <v>9,66</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>[1]Data!S21</f>
@@ -6240,21 +6238,21 @@
         <f>[1]Data!K22</f>
         <v/>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="7" t="str">
         <f>[1]Data!O22</f>
-        <v>42095</v>
-      </c>
-      <c r="H18" s="8">
+        <v>01/04/2015</v>
+      </c>
+      <c r="H18" s="8" t="str">
         <f>[1]Data!P22</f>
-        <v>6.25479452054795</v>
+        <v>6,25479452054795</v>
       </c>
       <c r="I18" s="5" t="str">
         <f>[1]Data!Q22</f>
         <v>Cadrage</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="9" t="str">
         <f>[1]Data!R22</f>
-        <v>17.5</v>
+        <v>17,5</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>[1]Data!S22</f>
@@ -6303,25 +6301,25 @@
         <f>[1]Data!K23</f>
         <v/>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="7" t="str">
         <f>[1]Data!O23</f>
-        <v>41730</v>
-      </c>
-      <c r="H19" s="8">
+        <v>01/04/2014</v>
+      </c>
+      <c r="H19" s="8" t="str">
         <f>[1]Data!P23</f>
-        <v>6.6739726027397301</v>
+        <v>6,67397260273973</v>
       </c>
       <c r="I19" s="5" t="str">
         <f>[1]Data!Q23</f>
         <v>Expérimentation</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="9" t="str">
         <f>[1]Data!R23</f>
-        <v>126.04</v>
+        <v>126,04</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>[1]Data!S23</f>
-        <v>&gt; 100 M€</v>
+        <v>plus de 100 M€</v>
       </c>
       <c r="L19" s="5" t="str">
         <f>[1]Data!N23</f>
@@ -6365,21 +6363,21 @@
         <f>[1]Data!K24</f>
         <v/>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="7" t="str">
         <f>[1]Data!O24</f>
-        <v>41646</v>
-      </c>
-      <c r="H20" s="8">
+        <v>07/01/2014</v>
+      </c>
+      <c r="H20" s="8" t="str">
         <f>[1]Data!P24</f>
-        <v>7.5643835616438402</v>
+        <v>7,56438356164384</v>
       </c>
       <c r="I20" s="5" t="str">
         <f>[1]Data!Q24</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="9" t="str">
         <f>[1]Data!R24</f>
-        <v>14.96</v>
+        <v>14,96</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>[1]Data!S24</f>
@@ -6428,21 +6426,21 @@
         <f>[1]Data!K25</f>
         <v>https://chorus-pro.gouv.fr/</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="7" t="str">
         <f>[1]Data!O25</f>
-        <v>41548</v>
-      </c>
-      <c r="H21" s="8">
+        <v>01/10/2013</v>
+      </c>
+      <c r="H21" s="8" t="str">
         <f>[1]Data!P25</f>
-        <v>4.1698630136986301</v>
+        <v>4,16986301369863</v>
       </c>
       <c r="I21" s="5" t="str">
         <f>[1]Data!Q25</f>
         <v>Terminé</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="9" t="str">
         <f>[1]Data!R25</f>
-        <v>33.229999999999997</v>
+        <v>33,23</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>[1]Data!S25</f>
@@ -6491,21 +6489,21 @@
         <f>[1]Data!K26</f>
         <v>https://ensap.gouv.fr</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="7" t="str">
         <f>[1]Data!O26</f>
-        <v>41548</v>
-      </c>
-      <c r="H22" s="8">
+        <v>01/10/2013</v>
+      </c>
+      <c r="H22" s="8" t="str">
         <f>[1]Data!P26</f>
-        <v>6.1698630136986301</v>
+        <v>6,16986301369863</v>
       </c>
       <c r="I22" s="5" t="str">
         <f>[1]Data!Q26</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="9" t="str">
         <f>[1]Data!R26</f>
-        <v>12.71</v>
+        <v>12,71</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>[1]Data!S26</f>
@@ -6517,7 +6515,7 @@
       </c>
       <c r="M22" s="5" t="str">
         <f>[1]Data!L26</f>
-        <v>Gestion fiscale et financière de l'État et du secteur public local (P156)</v>
+        <v>156</v>
       </c>
       <c r="N22" s="5" t="str">
         <f>[1]Data!M26</f>
@@ -6553,25 +6551,25 @@
         <f>[1]Data!K27</f>
         <v/>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="7" t="str">
         <f>[1]Data!O27</f>
-        <v>40269</v>
-      </c>
-      <c r="H23" s="8">
+        <v>01/04/2010</v>
+      </c>
+      <c r="H23" s="8" t="str">
         <f>[1]Data!P27</f>
-        <v>9.4246575342465793</v>
+        <v>9,42465753424658</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>[1]Data!Q27</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="9" t="str">
         <f>[1]Data!R27</f>
-        <v>4.24</v>
+        <v>4,24</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>[1]Data!S27</f>
-        <v>&lt; 5 M€</v>
+        <v>moins de 5M€</v>
       </c>
       <c r="L23" s="5" t="str">
         <f>[1]Data!N27</f>
@@ -6615,21 +6613,21 @@
         <f>[1]Data!K28</f>
         <v/>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="7" t="str">
         <f>[1]Data!O28</f>
-        <v>41913</v>
-      </c>
-      <c r="H24" s="8">
+        <v>01/10/2014</v>
+      </c>
+      <c r="H24" s="8" t="str">
         <f>[1]Data!P28</f>
-        <v>6.75068493150685</v>
+        <v>6,75068493150685</v>
       </c>
       <c r="I24" s="5" t="str">
         <f>[1]Data!Q28</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="9" t="str">
         <f>[1]Data!R28</f>
-        <v>46.1</v>
+        <v>46,1</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>[1]Data!S28</f>
@@ -6641,7 +6639,7 @@
       </c>
       <c r="M24" s="5" t="str">
         <f>[1]Data!L28</f>
-        <v>Gestion fiscale et financière de l'État et du secteur public local (P156)</v>
+        <v>156</v>
       </c>
       <c r="N24" s="5" t="str">
         <f>[1]Data!M28</f>
@@ -6677,21 +6675,21 @@
         <f>[1]Data!K29</f>
         <v/>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="7" t="str">
         <f>[1]Data!O29</f>
-        <v>41791</v>
-      </c>
-      <c r="H25" s="8">
+        <v>01/06/2014</v>
+      </c>
+      <c r="H25" s="8" t="str">
         <f>[1]Data!P29</f>
-        <v>8.0054794520548</v>
+        <v>8,0054794520548</v>
       </c>
       <c r="I25" s="5" t="str">
         <f>[1]Data!Q29</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="9" t="str">
         <f>[1]Data!R29</f>
-        <v>28.04</v>
+        <v>28,04</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>[1]Data!S29</f>
@@ -6739,21 +6737,21 @@
         <f>[1]Data!K30</f>
         <v/>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="7" t="str">
         <f>[1]Data!O30</f>
-        <v>41883</v>
-      </c>
-      <c r="H26" s="8">
+        <v>01/09/2014</v>
+      </c>
+      <c r="H26" s="8" t="str">
         <f>[1]Data!P30</f>
-        <v>4.5808219178082199</v>
+        <v>4,58082191780822</v>
       </c>
       <c r="I26" s="5" t="str">
         <f>[1]Data!Q30</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="9" t="str">
         <f>[1]Data!R30</f>
-        <v>5.58</v>
+        <v>5,58</v>
       </c>
       <c r="K26" s="5" t="str">
         <f>[1]Data!S30</f>
@@ -6801,21 +6799,21 @@
         <f>[1]Data!K31</f>
         <v/>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="7" t="str">
         <f>[1]Data!O31</f>
-        <v>42005</v>
-      </c>
-      <c r="H27" s="8">
+        <v>01/01/2015</v>
+      </c>
+      <c r="H27" s="8" t="str">
         <f>[1]Data!P31</f>
-        <v>10.923287671232901</v>
+        <v>10,9232876712329</v>
       </c>
       <c r="I27" s="5" t="str">
         <f>[1]Data!Q31</f>
         <v>Déploiement</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="9" t="str">
         <f>[1]Data!R31</f>
-        <v>11.9</v>
+        <v>11,9</v>
       </c>
       <c r="K27" s="5" t="str">
         <f>[1]Data!S31</f>
@@ -6865,21 +6863,21 @@
         <f>[1]Data!K32</f>
         <v>http://www.economie.gouv.fr/cisirh/renoirh</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="7" t="str">
         <f>[1]Data!O32</f>
-        <v>40544</v>
-      </c>
-      <c r="H28" s="8">
+        <v>01/01/2011</v>
+      </c>
+      <c r="H28" s="8" t="str">
         <f>[1]Data!P32</f>
-        <v>8.0054794520548</v>
+        <v>8,0054794520548</v>
       </c>
       <c r="I28" s="5" t="str">
         <f>[1]Data!Q32</f>
         <v>Déploiement</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="9" t="str">
         <f>[1]Data!R32</f>
-        <v>43.5</v>
+        <v>43,5</v>
       </c>
       <c r="K28" s="5" t="str">
         <f>[1]Data!S32</f>
@@ -6891,7 +6889,7 @@
       </c>
       <c r="M28" s="5" t="str">
         <f>[1]Data!L32</f>
-        <v>Conduite et pilotage des politiques économiques et financières (P218)</v>
+        <v>218</v>
       </c>
       <c r="N28" s="5" t="str">
         <f>[1]Data!M32</f>
@@ -6927,21 +6925,21 @@
         <f>[1]Data!K33</f>
         <v/>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="7" t="str">
         <f>[1]Data!O33</f>
-        <v>41883</v>
-      </c>
-      <c r="H29" s="8">
+        <v>01/09/2014</v>
+      </c>
+      <c r="H29" s="8" t="str">
         <f>[1]Data!P33</f>
-        <v>3.6630136986301398</v>
+        <v>3,66301369863014</v>
       </c>
       <c r="I29" s="5" t="str">
         <f>[1]Data!Q33</f>
         <v>Expérimentation</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="9" t="str">
         <f>[1]Data!R33</f>
-        <v>10.050000000000001</v>
+        <v>10,05</v>
       </c>
       <c r="K29" s="5" t="str">
         <f>[1]Data!S33</f>
@@ -6990,25 +6988,25 @@
         <f>[1]Data!K34</f>
         <v/>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="7" t="str">
         <f>[1]Data!O34</f>
-        <v>39083</v>
-      </c>
-      <c r="H30" s="8">
+        <v>01/01/2007</v>
+      </c>
+      <c r="H30" s="8" t="str">
         <f>[1]Data!P34</f>
-        <v>11.421917808219201</v>
+        <v>11,4219178082192</v>
       </c>
       <c r="I30" s="5" t="str">
         <f>[1]Data!Q34</f>
         <v>Déploiement</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="9" t="str">
         <f>[1]Data!R34</f>
-        <v>161.69999999999999</v>
+        <v>161,7</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>[1]Data!S34</f>
-        <v>&gt; 100 M€</v>
+        <v>plus de 100 M€</v>
       </c>
       <c r="L30" s="5" t="str">
         <f>[1]Data!N34</f>
@@ -7016,7 +7014,7 @@
       </c>
       <c r="M30" s="5" t="str">
         <f>[1]Data!L34</f>
-        <v>Gestion fiscale et financière de l'État et du secteur public local (P156) / Action de la France en Europe et dans le monde (P105)</v>
+        <v>156 / 105</v>
       </c>
       <c r="N30" s="5" t="str">
         <f>[1]Data!M34</f>
@@ -7055,25 +7053,25 @@
         <f>[1]Data!K35</f>
         <v>http://www.economie.gouv.fr/prelevement-a-la-source</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="7" t="str">
         <f>[1]Data!O35</f>
-        <v>42370</v>
-      </c>
-      <c r="H31" s="8">
+        <v>01/01/2016</v>
+      </c>
+      <c r="H31" s="8" t="str">
         <f>[1]Data!P35</f>
-        <v>4.6712328767123301</v>
+        <v>4,67123287671233</v>
       </c>
       <c r="I31" s="5" t="str">
         <f>[1]Data!Q35</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="9" t="str">
         <f>[1]Data!R35</f>
-        <v>194.98</v>
+        <v>194,98</v>
       </c>
       <c r="K31" s="5" t="str">
         <f>[1]Data!S35</f>
-        <v>&gt; 100 M€</v>
+        <v>plus de 100 M€</v>
       </c>
       <c r="L31" s="5" t="str">
         <f>[1]Data!N35</f>
@@ -7117,19 +7115,19 @@
         <f>[1]Data!K36</f>
         <v/>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="7" t="str">
         <f>[1]Data!O36</f>
-        <v>42430</v>
-      </c>
-      <c r="H32" s="8">
+        <v>01/03/2016</v>
+      </c>
+      <c r="H32" s="8" t="str">
         <f>[1]Data!P36</f>
-        <v>3.25205479452055</v>
+        <v>3,25205479452055</v>
       </c>
       <c r="I32" s="5" t="str">
         <f>[1]Data!Q36</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="9" t="str">
         <f>[1]Data!R36</f>
         <v>5</v>
       </c>
@@ -7139,7 +7137,7 @@
       </c>
       <c r="L32" s="5" t="str">
         <f>[1]Data!N36</f>
-        <v/>
+        <v>Etat civil</v>
       </c>
       <c r="M32" s="5" t="str">
         <f>[1]Data!L36</f>
@@ -7184,11 +7182,11 @@
         <f>[1]Data!K37</f>
         <v/>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="7" t="str">
         <f>[1]Data!O37</f>
-        <v>42370</v>
-      </c>
-      <c r="H33" s="8">
+        <v>01/01/2016</v>
+      </c>
+      <c r="H33" s="8" t="str">
         <f>[1]Data!P37</f>
         <v>4</v>
       </c>
@@ -7196,9 +7194,9 @@
         <f>[1]Data!Q37</f>
         <v>Cadrage</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="9" t="str">
         <f>[1]Data!R37</f>
-        <v>6.77</v>
+        <v>6,77</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>[1]Data!S37</f>
@@ -7246,21 +7244,21 @@
         <f>[1]Data!K38</f>
         <v>http://www.economie.gouv.fr/cisirh/</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="7" t="str">
         <f>[1]Data!O38</f>
-        <v>42703</v>
-      </c>
-      <c r="H34" s="8">
+        <v>29/11/2016</v>
+      </c>
+      <c r="H34" s="8" t="str">
         <f>[1]Data!P38</f>
-        <v>5.7589041095890403</v>
+        <v>5,75890410958904</v>
       </c>
       <c r="I34" s="5" t="str">
         <f>[1]Data!Q38</f>
         <v>Cadrage</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="9" t="str">
         <f>[1]Data!R38</f>
-        <v>23.34</v>
+        <v>23,34</v>
       </c>
       <c r="K34" s="5" t="str">
         <f>[1]Data!S38</f>
@@ -7309,21 +7307,21 @@
         <f>[1]Data!K39</f>
         <v>https://www.guichet-entreprises.fr/</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="7" t="str">
         <f>[1]Data!O39</f>
-        <v>42095</v>
-      </c>
-      <c r="H35" s="8">
+        <v>01/04/2015</v>
+      </c>
+      <c r="H35" s="8" t="str">
         <f>[1]Data!P39</f>
-        <v>5.0054794520548</v>
+        <v>5,0054794520548</v>
       </c>
       <c r="I35" s="5" t="str">
         <f>[1]Data!Q39</f>
         <v>Déploiement</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="9" t="str">
         <f>[1]Data!R39</f>
-        <v>24.44</v>
+        <v>24,44</v>
       </c>
       <c r="K35" s="5" t="str">
         <f>[1]Data!S39</f>
@@ -7380,21 +7378,21 @@
         <f>[1]Data!K40</f>
         <v/>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="7" t="str">
         <f>[1]Data!O40</f>
-        <v>40513</v>
-      </c>
-      <c r="H36" s="8">
+        <v>01/12/2010</v>
+      </c>
+      <c r="H36" s="8" t="str">
         <f>[1]Data!P40</f>
-        <v>10.758904109589</v>
+        <v>10,758904109589</v>
       </c>
       <c r="I36" s="5" t="str">
         <f>[1]Data!Q40</f>
         <v>Expérimentation</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="9" t="str">
         <f>[1]Data!R40</f>
-        <v>40.049999999999997</v>
+        <v>40,05</v>
       </c>
       <c r="K36" s="5" t="str">
         <f>[1]Data!S40</f>
@@ -7442,21 +7440,21 @@
         <f>[1]Data!K41</f>
         <v/>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="7" t="str">
         <f>[1]Data!O41</f>
-        <v>41883</v>
-      </c>
-      <c r="H37" s="8">
+        <v>01/09/2014</v>
+      </c>
+      <c r="H37" s="8" t="str">
         <f>[1]Data!P41</f>
-        <v>8.0054794520547894</v>
+        <v>8,00547945205479</v>
       </c>
       <c r="I37" s="5" t="str">
         <f>[1]Data!Q41</f>
         <v>Cadrage</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="9" t="str">
         <f>[1]Data!R41</f>
-        <v>72.5</v>
+        <v>72,5</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>[1]Data!S41</f>
@@ -7509,25 +7507,25 @@
         <f>[1]Data!K42</f>
         <v>http://eduscol.education.fr/cid104511/le-livret-scolaire.html</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="7" t="str">
         <f>[1]Data!O42</f>
-        <v>41791</v>
-      </c>
-      <c r="H38" s="8">
+        <v>01/06/2014</v>
+      </c>
+      <c r="H38" s="8" t="str">
         <f>[1]Data!P42</f>
-        <v>4.0027397260274</v>
+        <v>4,0027397260274</v>
       </c>
       <c r="I38" s="5" t="str">
         <f>[1]Data!Q42</f>
         <v>Déploiement</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="9" t="str">
         <f>[1]Data!R42</f>
-        <v>2.04</v>
+        <v>2,04</v>
       </c>
       <c r="K38" s="5" t="str">
         <f>[1]Data!S42</f>
-        <v>&lt; 5 M€</v>
+        <v>moins de 5M€</v>
       </c>
       <c r="L38" s="5" t="str">
         <f>[1]Data!N42</f>
@@ -7576,21 +7574,21 @@
         <f>[1]Data!K43</f>
         <v/>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="7" t="str">
         <f>[1]Data!O43</f>
-        <v>42037</v>
-      </c>
-      <c r="H39" s="8">
+        <v>02/02/2015</v>
+      </c>
+      <c r="H39" s="8" t="str">
         <f>[1]Data!P43</f>
-        <v>5.9150684931506801</v>
+        <v>5,91506849315068</v>
       </c>
       <c r="I39" s="5" t="str">
         <f>[1]Data!Q43</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="9" t="str">
         <f>[1]Data!R43</f>
-        <v>17.399999999999999</v>
+        <v>17,4</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>[1]Data!S43</f>
@@ -7640,25 +7638,25 @@
         <f>[1]Data!K44</f>
         <v>http://www.sirhen.education.fr/</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="7" t="str">
         <f>[1]Data!O44</f>
-        <v>39783</v>
-      </c>
-      <c r="H40" s="8">
+        <v>01/12/2008</v>
+      </c>
+      <c r="H40" s="8" t="str">
         <f>[1]Data!P44</f>
-        <v>12.0082191780822</v>
+        <v>12,0082191780822</v>
       </c>
       <c r="I40" s="5" t="str">
         <f>[1]Data!Q44</f>
         <v>Déploiement</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="9" t="str">
         <f>[1]Data!R44</f>
-        <v>496.48</v>
+        <v>496,48</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>[1]Data!S44</f>
-        <v>&gt; 100 M€</v>
+        <v>plus de 100 M€</v>
       </c>
       <c r="L40" s="5" t="str">
         <f>[1]Data!N44</f>
@@ -7666,7 +7664,7 @@
       </c>
       <c r="M40" s="5" t="str">
         <f>[1]Data!L44</f>
-        <v>Soutien de la politique de l'éducation nationale (P214)</v>
+        <v>214</v>
       </c>
       <c r="N40" s="5" t="str">
         <f>[1]Data!M44</f>
@@ -7702,21 +7700,21 @@
         <f>[1]Data!K45</f>
         <v/>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="7" t="str">
         <f>[1]Data!O45</f>
-        <v>42644</v>
-      </c>
-      <c r="H41" s="8">
+        <v>01/10/2016</v>
+      </c>
+      <c r="H41" s="8" t="str">
         <f>[1]Data!P45</f>
-        <v>2.6630136986301398</v>
+        <v>2,66301369863014</v>
       </c>
       <c r="I41" s="5" t="str">
         <f>[1]Data!Q45</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="9" t="str">
         <f>[1]Data!R45</f>
-        <v>35.06</v>
+        <v>35,06</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>[1]Data!S45</f>
@@ -7728,7 +7726,7 @@
       </c>
       <c r="M41" s="5" t="str">
         <f>[1]Data!L45</f>
-        <v>Conduite et pilotage des politiques de l'écologie, du développement et de la mobilité durables (P217)</v>
+        <v>217</v>
       </c>
       <c r="N41" s="5" t="str">
         <f>[1]Data!M45</f>
@@ -7764,25 +7762,25 @@
         <f>[1]Data!K46</f>
         <v>https://registre-vtc.developpement-durable.gouv.fr/</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="7" t="str">
         <f>[1]Data!O46</f>
-        <v>42461</v>
-      </c>
-      <c r="H42" s="8">
+        <v>01/04/2016</v>
+      </c>
+      <c r="H42" s="8" t="str">
         <f>[1]Data!P46</f>
-        <v>1.4164383561643801</v>
+        <v>1,41643835616438</v>
       </c>
       <c r="I42" s="5" t="str">
         <f>[1]Data!Q46</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="9" t="str">
         <f>[1]Data!R46</f>
-        <v>1.02</v>
+        <v>1,02</v>
       </c>
       <c r="K42" s="5" t="str">
         <f>[1]Data!S46</f>
-        <v>&lt; 5 M€</v>
+        <v>moins de 5M€</v>
       </c>
       <c r="L42" s="5" t="str">
         <f>[1]Data!N46</f>
@@ -7830,21 +7828,21 @@
         <f>[1]Data!K47</f>
         <v>https://www.geoportail.gouv.fr/</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="7" t="str">
         <f>[1]Data!O47</f>
-        <v>42156</v>
-      </c>
-      <c r="H43" s="8">
+        <v>01/06/2015</v>
+      </c>
+      <c r="H43" s="8" t="str">
         <f>[1]Data!P47</f>
-        <v>4.5013698630137</v>
+        <v>4,5013698630137</v>
       </c>
       <c r="I43" s="5" t="str">
         <f>[1]Data!Q47</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="9" t="str">
         <f>[1]Data!R47</f>
-        <v>14.24</v>
+        <v>14,24</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>[1]Data!S47</f>
@@ -7892,21 +7890,21 @@
         <f>[1]Data!K48</f>
         <v/>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="7" t="str">
         <f>[1]Data!O48</f>
-        <v>42005</v>
-      </c>
-      <c r="H44" s="8">
+        <v>01/01/2015</v>
+      </c>
+      <c r="H44" s="8" t="str">
         <f>[1]Data!P48</f>
-        <v>3.79178082191781</v>
+        <v>3,79178082191781</v>
       </c>
       <c r="I44" s="5" t="str">
         <f>[1]Data!Q48</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="9" t="str">
         <f>[1]Data!R48</f>
-        <v>40.1</v>
+        <v>40,1</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>[1]Data!S48</f>
@@ -7958,21 +7956,21 @@
         <f>[1]Data!K49</f>
         <v/>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="7" t="str">
         <f>[1]Data!O49</f>
-        <v>42156</v>
-      </c>
-      <c r="H45" s="8">
+        <v>01/06/2015</v>
+      </c>
+      <c r="H45" s="8" t="str">
         <f>[1]Data!P49</f>
-        <v>3.0821917808219199</v>
+        <v>3,08219178082192</v>
       </c>
       <c r="I45" s="5" t="str">
         <f>[1]Data!Q49</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="9" t="str">
         <f>[1]Data!R49</f>
-        <v>9.6999999999999993</v>
+        <v>9,7</v>
       </c>
       <c r="K45" s="5" t="str">
         <f>[1]Data!S49</f>
@@ -7980,11 +7978,11 @@
       </c>
       <c r="L45" s="5" t="str">
         <f>[1]Data!N49</f>
-        <v>CONTENTIEUX DE L’ADMINISTRATION</v>
+        <v>Contentieux de l'administation</v>
       </c>
       <c r="M45" s="5" t="str">
         <f>[1]Data!L49</f>
-        <v>Conduite et pilotage des politiques de l'intérieur (P216)</v>
+        <v>216 -CPPI</v>
       </c>
       <c r="N45" s="5" t="str">
         <f>[1]Data!M49</f>
@@ -8027,21 +8025,21 @@
         <f>[1]Data!K50</f>
         <v/>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="7" t="str">
         <f>[1]Data!O50</f>
-        <v>41640</v>
-      </c>
-      <c r="H46" s="8">
+        <v>01/01/2014</v>
+      </c>
+      <c r="H46" s="8" t="str">
         <f>[1]Data!P50</f>
-        <v>5.4958904109589</v>
+        <v>5,4958904109589</v>
       </c>
       <c r="I46" s="5" t="str">
         <f>[1]Data!Q50</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="9" t="str">
         <f>[1]Data!R50</f>
-        <v>38.26</v>
+        <v>38,26</v>
       </c>
       <c r="K46" s="5" t="str">
         <f>[1]Data!S50</f>
@@ -8092,11 +8090,11 @@
         <f>[1]Data!K51</f>
         <v/>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="7" t="str">
         <f>[1]Data!O51</f>
-        <v>41640</v>
-      </c>
-      <c r="H47" s="8">
+        <v>01/01/2014</v>
+      </c>
+      <c r="H47" s="8" t="str">
         <f>[1]Data!P51</f>
         <v>5</v>
       </c>
@@ -8104,9 +8102,9 @@
         <f>[1]Data!Q51</f>
         <v>Déploiement</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="9" t="str">
         <f>[1]Data!R51</f>
-        <v>33.200000000000003</v>
+        <v>33,2</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>[1]Data!S51</f>
@@ -8154,25 +8152,25 @@
         <f>[1]Data!K52</f>
         <v/>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="7" t="str">
         <f>[1]Data!O52</f>
-        <v>41791</v>
-      </c>
-      <c r="H48" s="8">
+        <v>01/06/2014</v>
+      </c>
+      <c r="H48" s="8" t="str">
         <f>[1]Data!P52</f>
-        <v>7.5890410958904102</v>
+        <v>7,58904109589041</v>
       </c>
       <c r="I48" s="5" t="str">
         <f>[1]Data!Q52</f>
         <v>Déploiement</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="9" t="str">
         <f>[1]Data!R52</f>
         <v>352</v>
       </c>
       <c r="K48" s="5" t="str">
         <f>[1]Data!S52</f>
-        <v>&gt; 100 M€</v>
+        <v>plus de 100 M€</v>
       </c>
       <c r="L48" s="5" t="str">
         <f>[1]Data!N52</f>
@@ -8216,21 +8214,21 @@
         <f>[1]Data!K53</f>
         <v/>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="7" t="str">
         <f>[1]Data!O53</f>
-        <v>41883</v>
-      </c>
-      <c r="H49" s="8">
+        <v>01/09/2014</v>
+      </c>
+      <c r="H49" s="8" t="str">
         <f>[1]Data!P53</f>
-        <v>4.0821917808219199</v>
+        <v>4,08219178082192</v>
       </c>
       <c r="I49" s="5" t="str">
         <f>[1]Data!Q53</f>
         <v>Déploiement</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="9" t="str">
         <f>[1]Data!R53</f>
-        <v>81.599999999999994</v>
+        <v>81,6</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>[1]Data!S53</f>
@@ -8280,9 +8278,9 @@
         <f>[1]Data!K54</f>
         <v/>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="7" t="str">
         <f>[1]Data!O54</f>
-        <v>42036</v>
+        <v>01/02/2015</v>
       </c>
       <c r="H50" s="8" t="str">
         <f>[1]Data!P54</f>
@@ -8292,9 +8290,9 @@
         <f>[1]Data!Q54</f>
         <v>Cadrage</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="9" t="str">
         <f>[1]Data!R54</f>
-        <v>12.31</v>
+        <v>12,31</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>[1]Data!S54</f>
@@ -8344,21 +8342,21 @@
         <f>[1]Data!K55</f>
         <v>http://www.interieur.gouv.fr/Actualites/L-actu-du-Ministere/Le-plan-prefectures-nouvelle-generation</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="7" t="str">
         <f>[1]Data!O55</f>
-        <v>42166</v>
-      </c>
-      <c r="H51" s="8">
+        <v>11/06/2015</v>
+      </c>
+      <c r="H51" s="8" t="str">
         <f>[1]Data!P55</f>
-        <v>1.83561643835616</v>
+        <v>1,83561643835616</v>
       </c>
       <c r="I51" s="5" t="str">
         <f>[1]Data!Q55</f>
         <v>Terminé</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="9" t="str">
         <f>[1]Data!R55</f>
-        <v>17.14</v>
+        <v>17,14</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>[1]Data!S55</f>
@@ -8370,7 +8368,7 @@
       </c>
       <c r="M51" s="5" t="str">
         <f>[1]Data!L55</f>
-        <v>Administration territoriale (P307)</v>
+        <v>Administration territoriale (P307) et ANTS</v>
       </c>
       <c r="N51" s="5" t="str">
         <f>[1]Data!M55</f>
@@ -8405,25 +8403,25 @@
 Il est composé d'un logiciel, coeur de dispositif, permettant de déclencher à distance des sirènes via le réseau INPT et de transmettre des informations sous format mail à des tiers, abonnés, qui pourront ensuite retansmettre les données via différents vecteurs à leur disposition.
 En parralèle, le SAIP dispose également d'une application mobile d'alerte et d'information des populations, librement et gratuitement téléchargeable.</v>
       </c>
-      <c r="F52" s="5" t="str">
+      <c r="F52" s="5">
         <f>[1]Data!K56</f>
-        <v>http://www.interieur.gouv.fr/Actualites/L-actu-du-Ministere/Lancement-de-l-application-mobile-SAIP</v>
-      </c>
-      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7" t="str">
         <f>[1]Data!O56</f>
-        <v>39448</v>
-      </c>
-      <c r="H52" s="8">
+        <v>01/01/2008</v>
+      </c>
+      <c r="H52" s="8" t="str">
         <f>[1]Data!P56</f>
-        <v>17.0109589041096</v>
+        <v>17,0109589041096</v>
       </c>
       <c r="I52" s="5" t="str">
         <f>[1]Data!Q56</f>
         <v>Déploiement</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="9" t="str">
         <f>[1]Data!R56</f>
-        <v>81.599999999999994</v>
+        <v>81,6</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>[1]Data!S56</f>
@@ -8477,21 +8475,21 @@
         <f>[1]Data!K57</f>
         <v/>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="7" t="str">
         <f>[1]Data!O57</f>
-        <v>41913</v>
-      </c>
-      <c r="H53" s="8">
+        <v>01/10/2014</v>
+      </c>
+      <c r="H53" s="8" t="str">
         <f>[1]Data!P57</f>
-        <v>4.25205479452055</v>
+        <v>4,25205479452055</v>
       </c>
       <c r="I53" s="5" t="str">
         <f>[1]Data!Q57</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="9" t="str">
         <f>[1]Data!R57</f>
-        <v>10.31</v>
+        <v>10,31</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>[1]Data!S57</f>
@@ -8503,7 +8501,7 @@
       </c>
       <c r="M53" s="5" t="str">
         <f>[1]Data!L57</f>
-        <v>Gendarmerie nationale (P152)</v>
+        <v>152</v>
       </c>
       <c r="N53" s="5" t="str">
         <f>[1]Data!M57</f>
@@ -8539,21 +8537,21 @@
         <f>[1]Data!K58</f>
         <v/>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="7" t="str">
         <f>[1]Data!O58</f>
-        <v>40909</v>
-      </c>
-      <c r="H54" s="8">
+        <v>01/01/2012</v>
+      </c>
+      <c r="H54" s="8" t="str">
         <f>[1]Data!P58</f>
-        <v>7.9589041095890396</v>
+        <v>7,95890410958904</v>
       </c>
       <c r="I54" s="5" t="str">
         <f>[1]Data!Q58</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="9" t="str">
         <f>[1]Data!R58</f>
-        <v>20.46</v>
+        <v>20,46</v>
       </c>
       <c r="K54" s="5" t="str">
         <f>[1]Data!S58</f>
@@ -8603,21 +8601,21 @@
         <f>[1]Data!K59</f>
         <v/>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="7" t="str">
         <f>[1]Data!O59</f>
-        <v>41640</v>
-      </c>
-      <c r="H55" s="8">
+        <v>01/01/2014</v>
+      </c>
+      <c r="H55" s="8" t="str">
         <f>[1]Data!P59</f>
-        <v>7.0027397260274</v>
+        <v>7,0027397260274</v>
       </c>
       <c r="I55" s="5" t="str">
         <f>[1]Data!Q59</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="9" t="str">
         <f>[1]Data!R59</f>
-        <v>9.91</v>
+        <v>9,91</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>[1]Data!S59</f>
@@ -8667,21 +8665,21 @@
         <f>[1]Data!K60</f>
         <v>http://www.justice.gouv.fr/comedec-12589/</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="7" t="str">
         <f>[1]Data!O60</f>
-        <v>39448</v>
-      </c>
-      <c r="H56" s="8">
+        <v>01/01/2008</v>
+      </c>
+      <c r="H56" s="8" t="str">
         <f>[1]Data!P60</f>
-        <v>13.0082191780822</v>
+        <v>13,0082191780822</v>
       </c>
       <c r="I56" s="5" t="str">
         <f>[1]Data!Q60</f>
         <v>Déploiement</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="9" t="str">
         <f>[1]Data!R60</f>
-        <v>21.5</v>
+        <v>21,5</v>
       </c>
       <c r="K56" s="5" t="str">
         <f>[1]Data!S60</f>
@@ -8730,21 +8728,21 @@
         <f>[1]Data!K61</f>
         <v/>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="7" t="str">
         <f>[1]Data!O61</f>
-        <v>41730</v>
-      </c>
-      <c r="H57" s="8">
+        <v>01/04/2014</v>
+      </c>
+      <c r="H57" s="8" t="str">
         <f>[1]Data!P61</f>
-        <v>5.75342465753425</v>
+        <v>5,75342465753425</v>
       </c>
       <c r="I57" s="5" t="str">
         <f>[1]Data!Q61</f>
         <v>Déploiement</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="9" t="str">
         <f>[1]Data!R61</f>
-        <v>38.6</v>
+        <v>38,6</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>[1]Data!S61</f>
@@ -8752,11 +8750,11 @@
       </c>
       <c r="L57" s="5" t="str">
         <f>[1]Data!N61</f>
-        <v>Ressources Humaines RH</v>
+        <v>Ressources Humaines</v>
       </c>
       <c r="M57" s="5" t="str">
         <f>[1]Data!L61</f>
-        <v>Conduite et pilotage de la politique de la justice (P310)</v>
+        <v>310</v>
       </c>
       <c r="N57" s="5" t="str">
         <f>[1]Data!M61</f>
@@ -8792,25 +8790,25 @@
         <f>[1]Data!K62</f>
         <v/>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="7" t="str">
         <f>[1]Data!O62</f>
-        <v>38412</v>
-      </c>
-      <c r="H58" s="8">
+        <v>01/03/2005</v>
+      </c>
+      <c r="H58" s="8" t="str">
         <f>[1]Data!P62</f>
-        <v>12.843835616438399</v>
+        <v>12,8438356164384</v>
       </c>
       <c r="I58" s="5" t="str">
         <f>[1]Data!Q62</f>
         <v>Déploiement</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="9" t="str">
         <f>[1]Data!R62</f>
-        <v>151.4</v>
+        <v>151,4</v>
       </c>
       <c r="K58" s="5" t="str">
         <f>[1]Data!S62</f>
-        <v>&gt; 100 M€</v>
+        <v>plus de 100 M€</v>
       </c>
       <c r="L58" s="5" t="str">
         <f>[1]Data!N62</f>
@@ -8861,21 +8859,21 @@
         <f>[1]Data!K63</f>
         <v>http://www.justice.fr/</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="7" t="str">
         <f>[1]Data!O63</f>
-        <v>41699</v>
-      </c>
-      <c r="H59" s="8">
+        <v>01/03/2014</v>
+      </c>
+      <c r="H59" s="8" t="str">
         <f>[1]Data!P63</f>
-        <v>11.843835616438399</v>
+        <v>11,8438356164384</v>
       </c>
       <c r="I59" s="5" t="str">
         <f>[1]Data!Q63</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="9" t="str">
         <f>[1]Data!R63</f>
-        <v>52.41</v>
+        <v>52,41</v>
       </c>
       <c r="K59" s="5" t="str">
         <f>[1]Data!S63</f>
@@ -8930,21 +8928,21 @@
         <f>[1]Data!K64</f>
         <v/>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="7" t="str">
         <f>[1]Data!O64</f>
-        <v>42389</v>
-      </c>
-      <c r="H60" s="8">
+        <v>20/01/2016</v>
+      </c>
+      <c r="H60" s="8" t="str">
         <f>[1]Data!P64</f>
-        <v>4.9506849315068502</v>
+        <v>4,95068493150685</v>
       </c>
       <c r="I60" s="5" t="str">
         <f>[1]Data!Q64</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="9" t="str">
         <f>[1]Data!R64</f>
-        <v>37.58</v>
+        <v>37,58</v>
       </c>
       <c r="K60" s="5" t="str">
         <f>[1]Data!S64</f>
@@ -8952,11 +8950,11 @@
       </c>
       <c r="L60" s="5" t="str">
         <f>[1]Data!N64</f>
-        <v>solutions et infrastructures partagées</v>
+        <v>Solutions et infrastructures partagées</v>
       </c>
       <c r="M60" s="5" t="str">
         <f>[1]Data!L64</f>
-        <v>Conduite et pilotage des politiques de l'agriculture (P215) / Conduite et pilotage des politiques économiques et financières (P218)</v>
+        <v>215 et 218</v>
       </c>
       <c r="N60" s="5" t="str">
         <f>[1]Data!M64</f>
@@ -8998,21 +8996,21 @@
         <f>[1]Data!K65</f>
         <v/>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="7" t="str">
         <f>[1]Data!O65</f>
-        <v>41974</v>
-      </c>
-      <c r="H61" s="8">
+        <v>01/12/2014</v>
+      </c>
+      <c r="H61" s="8" t="str">
         <f>[1]Data!P65</f>
-        <v>4.5013698630137</v>
+        <v>4,5013698630137</v>
       </c>
       <c r="I61" s="5" t="str">
         <f>[1]Data!Q65</f>
         <v>Déploiement</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="9" t="str">
         <f>[1]Data!R65</f>
-        <v>5.39</v>
+        <v>5,39</v>
       </c>
       <c r="K61" s="5" t="str">
         <f>[1]Data!S65</f>
@@ -9020,7 +9018,7 @@
       </c>
       <c r="L61" s="5" t="str">
         <f>[1]Data!N65</f>
-        <v>Ressources Humaines RH</v>
+        <v>Ressources Humaines</v>
       </c>
       <c r="M61" s="5" t="str">
         <f>[1]Data!L65</f>
@@ -9062,21 +9060,21 @@
         <f>[1]Data!K66</f>
         <v/>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="7" t="str">
         <f>[1]Data!O66</f>
-        <v>42036</v>
-      </c>
-      <c r="H62" s="8">
+        <v>01/02/2015</v>
+      </c>
+      <c r="H62" s="8" t="str">
         <f>[1]Data!P66</f>
-        <v>6.9178082191780801</v>
+        <v>6,91780821917808</v>
       </c>
       <c r="I62" s="5" t="str">
         <f>[1]Data!Q66</f>
         <v>Conception / Réalisation</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="9" t="str">
         <f>[1]Data!R66</f>
-        <v>30.84</v>
+        <v>30,84</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>[1]Data!S66</f>
@@ -9088,7 +9086,7 @@
       </c>
       <c r="M62" s="5" t="str">
         <f>[1]Data!L66</f>
-        <v>Police nationale (P176)</v>
+        <v>176</v>
       </c>
       <c r="N62" s="5" t="str">
         <f>[1]Data!M66</f>
@@ -9143,7 +9141,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
+      <c r="J65" s="19"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
